--- a/Παραδοτέο_2/gantt_diagram_paradotea_v2.xlsx
+++ b/Παραδοτέο_2/gantt_diagram_paradotea_v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linos\Downloads\ΕΑΡΙΝΟ ΕΞΑΜΗΝΟ 2022\ΤΕΧΝΟΛΟΓΙΑ ΛΟΓΙΣΜΙΚΟΥ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linos\Downloads\ΕΑΡΙΝΟ ΕΞΑΜΗΝΟ 2022\ΤΕΧΝΟΛΟΓΙΑ ΛΟΓΙΣΜΙΚΟΥ\Παραδοτέο_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46586AE9-4129-4850-8BF6-A9BA411D7938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA67AB0-0CA5-452E-A813-15392507B696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="2175" windowWidth="24585" windowHeight="13140" xr2:uid="{A40C5A18-1AE2-4314-A368-FFCC4BAF0C01}"/>
+    <workbookView xWindow="-5055" yWindow="2880" windowWidth="18660" windowHeight="13140" xr2:uid="{A40C5A18-1AE2-4314-A368-FFCC4BAF0C01}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -299,9 +299,6 @@
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>44635</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>44635</c:v>
                 </c:pt>
@@ -317,53 +314,38 @@
                 <c:pt idx="5">
                   <c:v>44637</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>44639</c:v>
-                </c:pt>
                 <c:pt idx="8">
                   <c:v>44639</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44644</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44653</c:v>
+                  <c:v>44656</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44653</c:v>
+                  <c:v>44665</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44657</c:v>
+                  <c:v>44673</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44662</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44669</c:v>
+                  <c:v>44678</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44670</c:v>
+                  <c:v>44686</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44682</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44695</c:v>
+                  <c:v>44686</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44695</c:v>
+                  <c:v>44700</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44695</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44716</c:v>
+                  <c:v>44702</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44726</c:v>
+                  <c:v>44714</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44716</c:v>
+                  <c:v>44714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -592,9 +574,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
@@ -610,53 +589,38 @@
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>13</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>14</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1427,16 +1391,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>432955</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>77677</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>74366</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>17319</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66472</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>263848</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>122502</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1451,8 +1415,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7126432" y="2363677"/>
-          <a:ext cx="194830" cy="179295"/>
+          <a:off x="8546013" y="2800707"/>
+          <a:ext cx="189482" cy="179295"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -1500,12 +1464,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.1632</cdr:x>
-      <cdr:y>0.04995</cdr:y>
+      <cdr:x>0.16569</cdr:x>
+      <cdr:y>0.21516</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.17752</cdr:x>
-      <cdr:y>0.07612</cdr:y>
+      <cdr:x>0.18001</cdr:x>
+      <cdr:y>0.24133</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1520,8 +1484,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2201890" y="342153"/>
-          <a:ext cx="193145" cy="179295"/>
+          <a:off x="2235493" y="1473973"/>
+          <a:ext cx="193204" cy="179276"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="flowChartDecision">
           <a:avLst/>
@@ -1659,12 +1623,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.40594</cdr:x>
-      <cdr:y>0.41795</cdr:y>
+      <cdr:x>0.56043</cdr:x>
+      <cdr:y>0.51446</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.42057</cdr:x>
-      <cdr:y>0.4426</cdr:y>
+      <cdr:x>0.57506</cdr:x>
+      <cdr:y>0.53911</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1679,8 +1643,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5524651" y="2863129"/>
-          <a:ext cx="199159" cy="168852"/>
+          <a:off x="7561188" y="3524288"/>
+          <a:ext cx="197386" cy="168863"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="flowChartDecision">
           <a:avLst/>
@@ -1721,12 +1685,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.61755</cdr:x>
-      <cdr:y>0.57994</cdr:y>
+      <cdr:x>0.67901</cdr:x>
+      <cdr:y>0.64864</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.6316</cdr:x>
-      <cdr:y>0.60612</cdr:y>
+      <cdr:x>0.69306</cdr:x>
+      <cdr:y>0.67482</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1741,8 +1705,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="8331947" y="3972859"/>
-          <a:ext cx="189482" cy="179295"/>
+          <a:off x="9161147" y="4443490"/>
+          <a:ext cx="189561" cy="179344"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="flowChartDecision">
           <a:avLst/>
@@ -1880,12 +1844,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.78865</cdr:x>
-      <cdr:y>0.71081</cdr:y>
+      <cdr:x>0.79114</cdr:x>
+      <cdr:y>0.77951</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.80269</cdr:x>
-      <cdr:y>0.73698</cdr:y>
+      <cdr:x>0.80518</cdr:x>
+      <cdr:y>0.80568</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1900,8 +1864,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="10640359" y="4869329"/>
-          <a:ext cx="189482" cy="179295"/>
+          <a:off x="10673989" y="5340007"/>
+          <a:ext cx="189426" cy="179276"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="flowChartDecision">
           <a:avLst/>
@@ -2039,12 +2003,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.90908</cdr:x>
-      <cdr:y>0.8433</cdr:y>
+      <cdr:x>0.89247</cdr:x>
+      <cdr:y>0.91364</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.92313</cdr:x>
-      <cdr:y>0.86948</cdr:y>
+      <cdr:x>0.90652</cdr:x>
+      <cdr:y>0.93982</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2059,8 +2023,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="12265212" y="5777006"/>
-          <a:ext cx="189482" cy="179295"/>
+          <a:off x="12041082" y="6258827"/>
+          <a:ext cx="189561" cy="179345"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="flowChartDecision">
           <a:avLst/>
@@ -2499,7 +2463,7 @@
   <dimension ref="A4:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2523,12 +2487,7 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
-        <v>44635</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2589,12 +2548,7 @@
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1">
-        <v>44639</v>
-      </c>
-      <c r="C12">
-        <v>13</v>
-      </c>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2604,7 +2558,7 @@
         <v>44639</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2612,32 +2566,27 @@
         <v>10</v>
       </c>
       <c r="B14" s="1">
-        <v>44644</v>
+        <v>44656</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="1">
-        <v>44653</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1">
-        <v>44653</v>
+        <v>44665</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2645,7 +2594,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="1">
-        <v>44657</v>
+        <v>44673</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -2656,32 +2605,27 @@
         <v>14</v>
       </c>
       <c r="B19" s="1">
-        <v>44662</v>
+        <v>44678</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="1">
-        <v>44669</v>
-      </c>
-      <c r="C21">
-        <v>25</v>
-      </c>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="1">
-        <v>44670</v>
+        <v>44686</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2689,32 +2633,27 @@
         <v>17</v>
       </c>
       <c r="B23" s="1">
-        <v>44682</v>
+        <v>44686</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="1">
-        <v>44695</v>
-      </c>
-      <c r="C25">
-        <v>20</v>
-      </c>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="1">
-        <v>44695</v>
+        <v>44700</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2722,32 +2661,27 @@
         <v>20</v>
       </c>
       <c r="B27" s="1">
-        <v>44695</v>
+        <v>44702</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="1">
-        <v>44716</v>
-      </c>
-      <c r="C29">
-        <v>14</v>
-      </c>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="1">
-        <v>44726</v>
+        <v>44714</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2755,10 +2689,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="1">
-        <v>44716</v>
+        <v>44714</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2"/>
     </row>
